--- a/Code/Results/Cases/Case_2_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032470822527148</v>
+        <v>1.061289673249482</v>
       </c>
       <c r="D2">
-        <v>1.045269162412453</v>
+        <v>1.06334133136097</v>
       </c>
       <c r="E2">
-        <v>1.036520926056988</v>
+        <v>1.065701894906011</v>
       </c>
       <c r="F2">
-        <v>1.04866295035545</v>
+        <v>1.075239413303145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056208580908285</v>
+        <v>1.049826041592673</v>
       </c>
       <c r="J2">
-        <v>1.053721890224704</v>
+        <v>1.066266120853881</v>
       </c>
       <c r="K2">
-        <v>1.05613189350508</v>
+        <v>1.066060232648585</v>
       </c>
       <c r="L2">
-        <v>1.047493874938971</v>
+        <v>1.06841442467493</v>
       </c>
       <c r="M2">
-        <v>1.059483540043547</v>
+        <v>1.077926507773063</v>
       </c>
       <c r="N2">
-        <v>1.055218296172413</v>
+        <v>1.067780341047927</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037994044125161</v>
+        <v>1.062431550793067</v>
       </c>
       <c r="D3">
-        <v>1.049493665690894</v>
+        <v>1.064237074861781</v>
       </c>
       <c r="E3">
-        <v>1.041253540526139</v>
+        <v>1.066764942224118</v>
       </c>
       <c r="F3">
-        <v>1.053567719248795</v>
+        <v>1.076322527149728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058080844614709</v>
+        <v>1.05015300399774</v>
       </c>
       <c r="J3">
-        <v>1.057499940943385</v>
+        <v>1.067061065156079</v>
       </c>
       <c r="K3">
-        <v>1.059530134936569</v>
+        <v>1.066770765359522</v>
       </c>
       <c r="L3">
-        <v>1.051384442308688</v>
+        <v>1.069292303421557</v>
       </c>
       <c r="M3">
-        <v>1.063558171742401</v>
+        <v>1.078826247068643</v>
       </c>
       <c r="N3">
-        <v>1.059001712156463</v>
+        <v>1.068576414262216</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.041485338749353</v>
+        <v>1.063170372880071</v>
       </c>
       <c r="D4">
-        <v>1.052167578106905</v>
+        <v>1.064816671534027</v>
       </c>
       <c r="E4">
-        <v>1.044256320174171</v>
+        <v>1.067453613139572</v>
       </c>
       <c r="F4">
-        <v>1.056676715228606</v>
+        <v>1.077023947183265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059255206473344</v>
+        <v>1.050363373319048</v>
       </c>
       <c r="J4">
-        <v>1.05988425052739</v>
+        <v>1.067574818728567</v>
       </c>
       <c r="K4">
-        <v>1.061674658663076</v>
+        <v>1.067229881563803</v>
       </c>
       <c r="L4">
-        <v>1.053848413932376</v>
+        <v>1.069860553497489</v>
       </c>
       <c r="M4">
-        <v>1.066136037854421</v>
+        <v>1.079408409468476</v>
       </c>
       <c r="N4">
-        <v>1.061389407733562</v>
+        <v>1.069090897423705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042934121630352</v>
+        <v>1.063480962763616</v>
       </c>
       <c r="D5">
-        <v>1.05327796168159</v>
+        <v>1.065060331695015</v>
       </c>
       <c r="E5">
-        <v>1.045505012913376</v>
+        <v>1.067743323792951</v>
       </c>
       <c r="F5">
-        <v>1.057968866102421</v>
+        <v>1.077318961365095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059740302492339</v>
+        <v>1.050451526027969</v>
       </c>
       <c r="J5">
-        <v>1.060872704027267</v>
+        <v>1.067790650517856</v>
       </c>
       <c r="K5">
-        <v>1.062563671543604</v>
+        <v>1.067422739471729</v>
       </c>
       <c r="L5">
-        <v>1.054871955891033</v>
+        <v>1.07009949459184</v>
       </c>
       <c r="M5">
-        <v>1.067206256701527</v>
+        <v>1.079653143637339</v>
       </c>
       <c r="N5">
-        <v>1.062379264950786</v>
+        <v>1.069307035718891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.043176289839696</v>
+        <v>1.063533111555148</v>
       </c>
       <c r="D6">
-        <v>1.053463610147441</v>
+        <v>1.065101243172754</v>
       </c>
       <c r="E6">
-        <v>1.045713888164538</v>
+        <v>1.067791978825037</v>
       </c>
       <c r="F6">
-        <v>1.058184969321621</v>
+        <v>1.077368503590872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059821255454011</v>
+        <v>1.050466310453901</v>
       </c>
       <c r="J6">
-        <v>1.06103786901277</v>
+        <v>1.067826880824139</v>
       </c>
       <c r="K6">
-        <v>1.0627122182508</v>
+        <v>1.067455112103551</v>
       </c>
       <c r="L6">
-        <v>1.055043104940216</v>
+        <v>1.070139616711498</v>
       </c>
       <c r="M6">
-        <v>1.067385173561409</v>
+        <v>1.079694235178108</v>
       </c>
       <c r="N6">
-        <v>1.062544664489513</v>
+        <v>1.069343317476365</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.041504770900729</v>
+        <v>1.063174523039175</v>
       </c>
       <c r="D7">
-        <v>1.052182468354212</v>
+        <v>1.064819927342057</v>
       </c>
       <c r="E7">
-        <v>1.044273058262809</v>
+        <v>1.067457483507674</v>
       </c>
       <c r="F7">
-        <v>1.056694038646394</v>
+        <v>1.077027888638051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059261721805134</v>
+        <v>1.050364552345737</v>
       </c>
       <c r="J7">
-        <v>1.059897512262687</v>
+        <v>1.067577703273398</v>
       </c>
       <c r="K7">
-        <v>1.061686586386545</v>
+        <v>1.067232459147731</v>
       </c>
       <c r="L7">
-        <v>1.05386213829438</v>
+        <v>1.069863746048522</v>
       </c>
       <c r="M7">
-        <v>1.066150390593572</v>
+        <v>1.079411679645467</v>
       </c>
       <c r="N7">
-        <v>1.061402688302044</v>
+        <v>1.069093786064921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034355031399167</v>
+        <v>1.061675586756974</v>
       </c>
       <c r="D8">
-        <v>1.046709536662891</v>
+        <v>1.063644053953921</v>
       </c>
       <c r="E8">
-        <v>1.038133021400379</v>
+        <v>1.066060989324535</v>
       </c>
       <c r="F8">
-        <v>1.050334326319136</v>
+        <v>1.075605338086518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056849180865153</v>
+        <v>1.049936787997669</v>
       </c>
       <c r="J8">
-        <v>1.0550115270053</v>
+        <v>1.066534906305698</v>
       </c>
       <c r="K8">
-        <v>1.057291893916249</v>
+        <v>1.066300494319357</v>
       </c>
       <c r="L8">
-        <v>1.048820090690454</v>
+        <v>1.068711065683941</v>
       </c>
       <c r="M8">
-        <v>1.060873065797263</v>
+        <v>1.078230584939332</v>
       </c>
       <c r="N8">
-        <v>1.056509764385162</v>
+        <v>1.068049508205915</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021084289356125</v>
+        <v>1.059033857048312</v>
       </c>
       <c r="D9">
-        <v>1.036582701438487</v>
+        <v>1.0615719459908</v>
       </c>
       <c r="E9">
-        <v>1.026829778552037</v>
+        <v>1.063606381569974</v>
       </c>
       <c r="F9">
-        <v>1.038602148009268</v>
+        <v>1.073103008319199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052300194693021</v>
+        <v>1.049173840296874</v>
       </c>
       <c r="J9">
-        <v>1.045913862678108</v>
+        <v>1.06469253874912</v>
       </c>
       <c r="K9">
-        <v>1.049108878363709</v>
+        <v>1.064653300860348</v>
       </c>
       <c r="L9">
-        <v>1.03950205824568</v>
+        <v>1.066681457731416</v>
       </c>
       <c r="M9">
-        <v>1.05109850833142</v>
+        <v>1.076149119264627</v>
       </c>
       <c r="N9">
-        <v>1.047399180331108</v>
+        <v>1.066204524276085</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011725750864781</v>
+        <v>1.057272372391009</v>
       </c>
       <c r="D10">
-        <v>1.029467373227972</v>
+        <v>1.06019049452921</v>
       </c>
       <c r="E10">
-        <v>1.018927346966025</v>
+        <v>1.061974142297669</v>
       </c>
       <c r="F10">
-        <v>1.030382306292055</v>
+        <v>1.071437731476608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04904693151425</v>
+        <v>1.048659036016301</v>
       </c>
       <c r="J10">
-        <v>1.039481745026015</v>
+        <v>1.063461029522197</v>
       </c>
       <c r="K10">
-        <v>1.043324215475855</v>
+        <v>1.063551832864676</v>
       </c>
       <c r="L10">
-        <v>1.032963069548294</v>
+        <v>1.065329434895976</v>
       </c>
       <c r="M10">
-        <v>1.044223843174081</v>
+        <v>1.074761316520546</v>
       </c>
       <c r="N10">
-        <v>1.040957928334175</v>
+        <v>1.064971266164804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007537341653303</v>
+        <v>1.056509538559242</v>
       </c>
       <c r="D11">
-        <v>1.026290257192038</v>
+        <v>1.059592298951793</v>
       </c>
       <c r="E11">
-        <v>1.015408207647444</v>
+        <v>1.061268352217289</v>
       </c>
       <c r="F11">
-        <v>1.026717429711865</v>
+        <v>1.07071734397297</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047580865062569</v>
+        <v>1.048434654363792</v>
       </c>
       <c r="J11">
-        <v>1.036599885680164</v>
+        <v>1.062926993110511</v>
       </c>
       <c r="K11">
-        <v>1.040732843598097</v>
+        <v>1.063074090258595</v>
       </c>
       <c r="L11">
-        <v>1.030045282347657</v>
+        <v>1.064744241831402</v>
       </c>
       <c r="M11">
-        <v>1.041152490536639</v>
+        <v>1.074160342471171</v>
       </c>
       <c r="N11">
-        <v>1.038071976417499</v>
+        <v>1.064436471360158</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005959745282142</v>
+        <v>1.056226171965229</v>
       </c>
       <c r="D12">
-        <v>1.025094780782355</v>
+        <v>1.059370099595584</v>
       </c>
       <c r="E12">
-        <v>1.014085460483676</v>
+        <v>1.061006337485092</v>
       </c>
       <c r="F12">
-        <v>1.025339223493815</v>
+        <v>1.070449863092731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047027209046894</v>
+        <v>1.048351088265265</v>
       </c>
       <c r="J12">
-        <v>1.035514002262482</v>
+        <v>1.062728509764535</v>
       </c>
       <c r="K12">
-        <v>1.039756495342262</v>
+        <v>1.062896514898537</v>
       </c>
       <c r="L12">
-        <v>1.028947690727293</v>
+        <v>1.064526911201669</v>
       </c>
       <c r="M12">
-        <v>1.039996549437359</v>
+        <v>1.073937106682967</v>
       </c>
       <c r="N12">
-        <v>1.03698455092081</v>
+        <v>1.064237706145065</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006299156744255</v>
+        <v>1.056286955811617</v>
       </c>
       <c r="D13">
-        <v>1.025351924815571</v>
+        <v>1.059417762245222</v>
       </c>
       <c r="E13">
-        <v>1.014369915636849</v>
+        <v>1.061062533879075</v>
       </c>
       <c r="F13">
-        <v>1.025635636152538</v>
+        <v>1.070507233988286</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047146389683899</v>
+        <v>1.048369023470405</v>
       </c>
       <c r="J13">
-        <v>1.035747641652047</v>
+        <v>1.06277109048453</v>
       </c>
       <c r="K13">
-        <v>1.039966563153528</v>
+        <v>1.062934610873691</v>
       </c>
       <c r="L13">
-        <v>1.029183766065891</v>
+        <v>1.064573527727558</v>
       </c>
       <c r="M13">
-        <v>1.040245201414726</v>
+        <v>1.073984991851208</v>
       </c>
       <c r="N13">
-        <v>1.037218522105107</v>
+        <v>1.064280347334566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007407390922135</v>
+        <v>1.056486115724541</v>
       </c>
       <c r="D14">
-        <v>1.026191757500604</v>
+        <v>1.059573931943588</v>
       </c>
       <c r="E14">
-        <v>1.015299192651859</v>
+        <v>1.061246690997263</v>
       </c>
       <c r="F14">
-        <v>1.026603857984111</v>
+        <v>1.070695231818233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047535288068351</v>
+        <v>1.048427751268718</v>
       </c>
       <c r="J14">
-        <v>1.036510446535051</v>
+        <v>1.062910588834563</v>
       </c>
       <c r="K14">
-        <v>1.040652424619559</v>
+        <v>1.063059414283748</v>
       </c>
       <c r="L14">
-        <v>1.029954841495829</v>
+        <v>1.064726276477798</v>
       </c>
       <c r="M14">
-        <v>1.041057253644204</v>
+        <v>1.074141889881339</v>
       </c>
       <c r="N14">
-        <v>1.03798241025854</v>
+        <v>1.064420043788257</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008087273703097</v>
+        <v>1.056608822544433</v>
       </c>
       <c r="D15">
-        <v>1.02670714301067</v>
+        <v>1.05967015286135</v>
       </c>
       <c r="E15">
-        <v>1.015869656080856</v>
+        <v>1.061360175767296</v>
       </c>
       <c r="F15">
-        <v>1.027198138424281</v>
+        <v>1.07081107714048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047773681377165</v>
+        <v>1.048463906144091</v>
       </c>
       <c r="J15">
-        <v>1.036978362511298</v>
+        <v>1.062996522660874</v>
       </c>
       <c r="K15">
-        <v>1.041073153432674</v>
+        <v>1.063136293808189</v>
       </c>
       <c r="L15">
-        <v>1.030428072765472</v>
+        <v>1.06482039480612</v>
       </c>
       <c r="M15">
-        <v>1.041555556354557</v>
+        <v>1.07423855896363</v>
       </c>
       <c r="N15">
-        <v>1.038450990729144</v>
+        <v>1.064506099650458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012000738651962</v>
+        <v>1.057322996962918</v>
       </c>
       <c r="D16">
-        <v>1.029676126510391</v>
+        <v>1.060230194405178</v>
       </c>
       <c r="E16">
-        <v>1.019158769883832</v>
+        <v>1.062021003901775</v>
       </c>
       <c r="F16">
-        <v>1.030623219917592</v>
+        <v>1.071485555699623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049142981107068</v>
+        <v>1.048673896540393</v>
       </c>
       <c r="J16">
-        <v>1.039670891644481</v>
+        <v>1.063496455179393</v>
       </c>
       <c r="K16">
-        <v>1.043494306306461</v>
+        <v>1.063583522190379</v>
       </c>
       <c r="L16">
-        <v>1.033154825423432</v>
+        <v>1.065368277309498</v>
       </c>
       <c r="M16">
-        <v>1.044425611419109</v>
+        <v>1.074801200186791</v>
       </c>
       <c r="N16">
-        <v>1.041147343562534</v>
+        <v>1.065006742130497</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014418172023415</v>
+        <v>1.057770952248643</v>
       </c>
       <c r="D17">
-        <v>1.031512134428594</v>
+        <v>1.060581488727417</v>
       </c>
       <c r="E17">
-        <v>1.021195232484071</v>
+        <v>1.062435786279216</v>
       </c>
       <c r="F17">
-        <v>1.03274269660436</v>
+        <v>1.071908822358677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049986222570638</v>
+        <v>1.048805224792672</v>
       </c>
       <c r="J17">
-        <v>1.04133333839602</v>
+        <v>1.063809839149259</v>
       </c>
       <c r="K17">
-        <v>1.044989315665393</v>
+        <v>1.063863842398134</v>
       </c>
       <c r="L17">
-        <v>1.03484156547661</v>
+        <v>1.065712014117361</v>
       </c>
       <c r="M17">
-        <v>1.046199991579295</v>
+        <v>1.075154117544813</v>
       </c>
       <c r="N17">
-        <v>1.042812151179146</v>
+        <v>1.065320571141545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015815188208256</v>
+        <v>1.058032227483618</v>
       </c>
       <c r="D18">
-        <v>1.032573836917585</v>
+        <v>1.060786391039833</v>
       </c>
       <c r="E18">
-        <v>1.022373744123745</v>
+        <v>1.062677816416738</v>
       </c>
       <c r="F18">
-        <v>1.033968834201243</v>
+        <v>1.072155773076793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050472568501917</v>
+        <v>1.048881684713542</v>
       </c>
       <c r="J18">
-        <v>1.042293749296942</v>
+        <v>1.063992555032126</v>
       </c>
       <c r="K18">
-        <v>1.045853032958354</v>
+        <v>1.064027271296415</v>
       </c>
       <c r="L18">
-        <v>1.035817138656378</v>
+        <v>1.065912533319393</v>
       </c>
       <c r="M18">
-        <v>1.047225896457366</v>
+        <v>1.07535996382214</v>
       </c>
       <c r="N18">
-        <v>1.043773925973707</v>
+        <v>1.065503546501923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016289364373568</v>
+        <v>1.058121314011735</v>
       </c>
       <c r="D19">
-        <v>1.032934314314252</v>
+        <v>1.060856257146635</v>
       </c>
       <c r="E19">
-        <v>1.022774032709987</v>
+        <v>1.062760358488398</v>
       </c>
       <c r="F19">
-        <v>1.034385229488806</v>
+        <v>1.072239988168014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050637480273058</v>
+        <v>1.048907731554755</v>
       </c>
       <c r="J19">
-        <v>1.042619679066901</v>
+        <v>1.064054843605345</v>
       </c>
       <c r="K19">
-        <v>1.046146153948688</v>
+        <v>1.064082983254032</v>
       </c>
       <c r="L19">
-        <v>1.036148404346654</v>
+        <v>1.065980909149628</v>
       </c>
       <c r="M19">
-        <v>1.047574192558481</v>
+        <v>1.075430151338402</v>
       </c>
       <c r="N19">
-        <v>1.044100318601325</v>
+        <v>1.065565923532061</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014160161879955</v>
+        <v>1.057722891877569</v>
       </c>
       <c r="D20">
-        <v>1.03131610711688</v>
+        <v>1.060543798350603</v>
       </c>
       <c r="E20">
-        <v>1.020977710271169</v>
+        <v>1.062391274272201</v>
       </c>
       <c r="F20">
-        <v>1.032516350519542</v>
+        <v>1.071863402982088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049896323184377</v>
+        <v>1.048791149164665</v>
       </c>
       <c r="J20">
-        <v>1.041155938315353</v>
+        <v>1.063776223847312</v>
       </c>
       <c r="K20">
-        <v>1.044829778942011</v>
+        <v>1.063833774673668</v>
       </c>
       <c r="L20">
-        <v>1.034661455739176</v>
+        <v>1.065675131998312</v>
       </c>
       <c r="M20">
-        <v>1.046010560835276</v>
+        <v>1.075116253314343</v>
       </c>
       <c r="N20">
-        <v>1.042634499170015</v>
+        <v>1.065286908102013</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.007081658079473</v>
+        <v>1.056427468549525</v>
       </c>
       <c r="D21">
-        <v>1.025944879261383</v>
+        <v>1.059527943940933</v>
       </c>
       <c r="E21">
-        <v>1.015025981976815</v>
+        <v>1.061192457255667</v>
       </c>
       <c r="F21">
-        <v>1.026319216303675</v>
+        <v>1.070639868299026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047421022216452</v>
+        <v>1.048410463491673</v>
       </c>
       <c r="J21">
-        <v>1.036286253166746</v>
+        <v>1.062869513321358</v>
       </c>
       <c r="K21">
-        <v>1.040450843075825</v>
+        <v>1.063022666118817</v>
       </c>
       <c r="L21">
-        <v>1.02972816676109</v>
+        <v>1.06468129478216</v>
       </c>
       <c r="M21">
-        <v>1.040818549013517</v>
+        <v>1.07409568752517</v>
       </c>
       <c r="N21">
-        <v>1.037757898509938</v>
+        <v>1.064378909943112</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002504013809759</v>
+        <v>1.055612890484438</v>
       </c>
       <c r="D22">
-        <v>1.022478431941394</v>
+        <v>1.058889219176921</v>
       </c>
       <c r="E22">
-        <v>1.011193206004047</v>
+        <v>1.060439564585921</v>
       </c>
       <c r="F22">
-        <v>1.022324428468032</v>
+        <v>1.069871179916834</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045811824605757</v>
+        <v>1.048169833934209</v>
       </c>
       <c r="J22">
-        <v>1.033134695126127</v>
+        <v>1.062298742875905</v>
       </c>
       <c r="K22">
-        <v>1.037617362692052</v>
+        <v>1.0625119927229</v>
       </c>
       <c r="L22">
-        <v>1.026546137363902</v>
+        <v>1.064056638824085</v>
       </c>
       <c r="M22">
-        <v>1.037466238067655</v>
+        <v>1.073453975104108</v>
       </c>
       <c r="N22">
-        <v>1.034601864895412</v>
+        <v>1.063807328938158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004943254050336</v>
+        <v>1.056044723045554</v>
       </c>
       <c r="D23">
-        <v>1.024324854947086</v>
+        <v>1.059227820911061</v>
       </c>
       <c r="E23">
-        <v>1.013233970770662</v>
+        <v>1.060838606604066</v>
       </c>
       <c r="F23">
-        <v>1.024451838658275</v>
+        <v>1.070278619738622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046670071582349</v>
+        <v>1.048297517365223</v>
       </c>
       <c r="J23">
-        <v>1.03481422947691</v>
+        <v>1.062601384250427</v>
       </c>
       <c r="K23">
-        <v>1.039127334969162</v>
+        <v>1.062782776557281</v>
       </c>
       <c r="L23">
-        <v>1.028240892918216</v>
+        <v>1.064387761023814</v>
       </c>
       <c r="M23">
-        <v>1.039252011291383</v>
+        <v>1.073794163104317</v>
       </c>
       <c r="N23">
-        <v>1.036283784377619</v>
+        <v>1.064110400098145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014276785727761</v>
+        <v>1.057744608319511</v>
       </c>
       <c r="D24">
-        <v>1.031404711815499</v>
+        <v>1.06056082901468</v>
       </c>
       <c r="E24">
-        <v>1.02107602793525</v>
+        <v>1.062411387039736</v>
       </c>
       <c r="F24">
-        <v>1.032618657761637</v>
+        <v>1.07188392583784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049936961817011</v>
+        <v>1.048797509772575</v>
       </c>
       <c r="J24">
-        <v>1.041236126344436</v>
+        <v>1.063791413388933</v>
       </c>
       <c r="K24">
-        <v>1.04490189230024</v>
+        <v>1.063847361222262</v>
       </c>
       <c r="L24">
-        <v>1.034742865084971</v>
+        <v>1.065691797368074</v>
       </c>
       <c r="M24">
-        <v>1.046096184370176</v>
+        <v>1.075133362543799</v>
       </c>
       <c r="N24">
-        <v>1.042714801075298</v>
+        <v>1.065302119214526</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024600572350722</v>
+        <v>1.059716861967966</v>
       </c>
       <c r="D25">
-        <v>1.039261829023387</v>
+        <v>1.062107643706108</v>
       </c>
       <c r="E25">
-        <v>1.029813364235741</v>
+        <v>1.064240222375449</v>
       </c>
       <c r="F25">
-        <v>1.041701906168941</v>
+        <v>1.073749401386022</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053513507969584</v>
+        <v>1.049372168103513</v>
       </c>
       <c r="J25">
-        <v>1.048327474241406</v>
+        <v>1.065169408838429</v>
       </c>
       <c r="K25">
-        <v>1.051279763714244</v>
+        <v>1.065079727694248</v>
       </c>
       <c r="L25">
-        <v>1.041965846223148</v>
+        <v>1.067205975036686</v>
       </c>
       <c r="M25">
-        <v>1.053685594605447</v>
+        <v>1.076687255534348</v>
       </c>
       <c r="N25">
-        <v>1.049816219499671</v>
+        <v>1.066682071575618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061289673249482</v>
+        <v>1.032470822527148</v>
       </c>
       <c r="D2">
-        <v>1.06334133136097</v>
+        <v>1.045269162412454</v>
       </c>
       <c r="E2">
-        <v>1.065701894906011</v>
+        <v>1.036520926056988</v>
       </c>
       <c r="F2">
-        <v>1.075239413303145</v>
+        <v>1.04866295035545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049826041592673</v>
+        <v>1.056208580908285</v>
       </c>
       <c r="J2">
-        <v>1.066266120853881</v>
+        <v>1.053721890224705</v>
       </c>
       <c r="K2">
-        <v>1.066060232648585</v>
+        <v>1.056131893505081</v>
       </c>
       <c r="L2">
-        <v>1.06841442467493</v>
+        <v>1.047493874938971</v>
       </c>
       <c r="M2">
-        <v>1.077926507773063</v>
+        <v>1.059483540043547</v>
       </c>
       <c r="N2">
-        <v>1.067780341047927</v>
+        <v>1.055218296172414</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062431550793067</v>
+        <v>1.037994044125159</v>
       </c>
       <c r="D3">
-        <v>1.064237074861781</v>
+        <v>1.049493665690894</v>
       </c>
       <c r="E3">
-        <v>1.066764942224118</v>
+        <v>1.041253540526138</v>
       </c>
       <c r="F3">
-        <v>1.076322527149728</v>
+        <v>1.053567719248794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05015300399774</v>
+        <v>1.058080844614709</v>
       </c>
       <c r="J3">
-        <v>1.067061065156079</v>
+        <v>1.057499940943384</v>
       </c>
       <c r="K3">
-        <v>1.066770765359522</v>
+        <v>1.059530134936568</v>
       </c>
       <c r="L3">
-        <v>1.069292303421557</v>
+        <v>1.051384442308687</v>
       </c>
       <c r="M3">
-        <v>1.078826247068643</v>
+        <v>1.0635581717424</v>
       </c>
       <c r="N3">
-        <v>1.068576414262216</v>
+        <v>1.059001712156462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063170372880071</v>
+        <v>1.041485338749355</v>
       </c>
       <c r="D4">
-        <v>1.064816671534027</v>
+        <v>1.052167578106907</v>
       </c>
       <c r="E4">
-        <v>1.067453613139572</v>
+        <v>1.044256320174172</v>
       </c>
       <c r="F4">
-        <v>1.077023947183265</v>
+        <v>1.056676715228607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050363373319048</v>
+        <v>1.059255206473344</v>
       </c>
       <c r="J4">
-        <v>1.067574818728567</v>
+        <v>1.059884250527392</v>
       </c>
       <c r="K4">
-        <v>1.067229881563803</v>
+        <v>1.061674658663077</v>
       </c>
       <c r="L4">
-        <v>1.069860553497489</v>
+        <v>1.053848413932377</v>
       </c>
       <c r="M4">
-        <v>1.079408409468476</v>
+        <v>1.066136037854422</v>
       </c>
       <c r="N4">
-        <v>1.069090897423705</v>
+        <v>1.061389407733563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063480962763616</v>
+        <v>1.04293412163035</v>
       </c>
       <c r="D5">
-        <v>1.065060331695015</v>
+        <v>1.053277961681588</v>
       </c>
       <c r="E5">
-        <v>1.067743323792951</v>
+        <v>1.045505012913375</v>
       </c>
       <c r="F5">
-        <v>1.077318961365095</v>
+        <v>1.05796886610242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050451526027969</v>
+        <v>1.059740302492338</v>
       </c>
       <c r="J5">
-        <v>1.067790650517856</v>
+        <v>1.060872704027266</v>
       </c>
       <c r="K5">
-        <v>1.067422739471729</v>
+        <v>1.062563671543603</v>
       </c>
       <c r="L5">
-        <v>1.07009949459184</v>
+        <v>1.054871955891032</v>
       </c>
       <c r="M5">
-        <v>1.079653143637339</v>
+        <v>1.067206256701525</v>
       </c>
       <c r="N5">
-        <v>1.069307035718891</v>
+        <v>1.062379264950785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063533111555148</v>
+        <v>1.043176289839697</v>
       </c>
       <c r="D6">
-        <v>1.065101243172754</v>
+        <v>1.053463610147441</v>
       </c>
       <c r="E6">
-        <v>1.067791978825037</v>
+        <v>1.045713888164538</v>
       </c>
       <c r="F6">
-        <v>1.077368503590872</v>
+        <v>1.058184969321622</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050466310453901</v>
+        <v>1.059821255454011</v>
       </c>
       <c r="J6">
-        <v>1.067826880824139</v>
+        <v>1.061037869012771</v>
       </c>
       <c r="K6">
-        <v>1.067455112103551</v>
+        <v>1.062712218250801</v>
       </c>
       <c r="L6">
-        <v>1.070139616711498</v>
+        <v>1.055043104940217</v>
       </c>
       <c r="M6">
-        <v>1.079694235178108</v>
+        <v>1.067385173561409</v>
       </c>
       <c r="N6">
-        <v>1.069343317476365</v>
+        <v>1.062544664489514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063174523039175</v>
+        <v>1.04150477090073</v>
       </c>
       <c r="D7">
-        <v>1.064819927342057</v>
+        <v>1.052182468354213</v>
       </c>
       <c r="E7">
-        <v>1.067457483507674</v>
+        <v>1.044273058262809</v>
       </c>
       <c r="F7">
-        <v>1.077027888638051</v>
+        <v>1.056694038646395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050364552345737</v>
+        <v>1.059261721805134</v>
       </c>
       <c r="J7">
-        <v>1.067577703273398</v>
+        <v>1.059897512262688</v>
       </c>
       <c r="K7">
-        <v>1.067232459147731</v>
+        <v>1.061686586386545</v>
       </c>
       <c r="L7">
-        <v>1.069863746048522</v>
+        <v>1.053862138294381</v>
       </c>
       <c r="M7">
-        <v>1.079411679645467</v>
+        <v>1.066150390593573</v>
       </c>
       <c r="N7">
-        <v>1.069093786064921</v>
+        <v>1.061402688302045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061675586756974</v>
+        <v>1.034355031399166</v>
       </c>
       <c r="D8">
-        <v>1.063644053953921</v>
+        <v>1.04670953666289</v>
       </c>
       <c r="E8">
-        <v>1.066060989324535</v>
+        <v>1.038133021400378</v>
       </c>
       <c r="F8">
-        <v>1.075605338086518</v>
+        <v>1.050334326319135</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049936787997669</v>
+        <v>1.056849180865152</v>
       </c>
       <c r="J8">
-        <v>1.066534906305698</v>
+        <v>1.0550115270053</v>
       </c>
       <c r="K8">
-        <v>1.066300494319357</v>
+        <v>1.057291893916249</v>
       </c>
       <c r="L8">
-        <v>1.068711065683941</v>
+        <v>1.048820090690454</v>
       </c>
       <c r="M8">
-        <v>1.078230584939332</v>
+        <v>1.060873065797262</v>
       </c>
       <c r="N8">
-        <v>1.068049508205915</v>
+        <v>1.056509764385161</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059033857048312</v>
+        <v>1.021084289356125</v>
       </c>
       <c r="D9">
-        <v>1.0615719459908</v>
+        <v>1.036582701438487</v>
       </c>
       <c r="E9">
-        <v>1.063606381569974</v>
+        <v>1.026829778552036</v>
       </c>
       <c r="F9">
-        <v>1.073103008319199</v>
+        <v>1.038602148009268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049173840296874</v>
+        <v>1.052300194693021</v>
       </c>
       <c r="J9">
-        <v>1.06469253874912</v>
+        <v>1.045913862678107</v>
       </c>
       <c r="K9">
-        <v>1.064653300860348</v>
+        <v>1.049108878363708</v>
       </c>
       <c r="L9">
-        <v>1.066681457731416</v>
+        <v>1.039502058245679</v>
       </c>
       <c r="M9">
-        <v>1.076149119264627</v>
+        <v>1.05109850833142</v>
       </c>
       <c r="N9">
-        <v>1.066204524276085</v>
+        <v>1.047399180331107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057272372391009</v>
+        <v>1.011725750864783</v>
       </c>
       <c r="D10">
-        <v>1.06019049452921</v>
+        <v>1.029467373227973</v>
       </c>
       <c r="E10">
-        <v>1.061974142297669</v>
+        <v>1.018927346966025</v>
       </c>
       <c r="F10">
-        <v>1.071437731476608</v>
+        <v>1.030382306292055</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048659036016301</v>
+        <v>1.049046931514251</v>
       </c>
       <c r="J10">
-        <v>1.063461029522197</v>
+        <v>1.039481745026017</v>
       </c>
       <c r="K10">
-        <v>1.063551832864676</v>
+        <v>1.043324215475856</v>
       </c>
       <c r="L10">
-        <v>1.065329434895976</v>
+        <v>1.032963069548294</v>
       </c>
       <c r="M10">
-        <v>1.074761316520546</v>
+        <v>1.044223843174082</v>
       </c>
       <c r="N10">
-        <v>1.064971266164804</v>
+        <v>1.040957928334176</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056509538559242</v>
+        <v>1.007537341653303</v>
       </c>
       <c r="D11">
-        <v>1.059592298951793</v>
+        <v>1.026290257192038</v>
       </c>
       <c r="E11">
-        <v>1.061268352217289</v>
+        <v>1.015408207647445</v>
       </c>
       <c r="F11">
-        <v>1.07071734397297</v>
+        <v>1.026717429711866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048434654363792</v>
+        <v>1.047580865062569</v>
       </c>
       <c r="J11">
-        <v>1.062926993110511</v>
+        <v>1.036599885680165</v>
       </c>
       <c r="K11">
-        <v>1.063074090258595</v>
+        <v>1.040732843598098</v>
       </c>
       <c r="L11">
-        <v>1.064744241831402</v>
+        <v>1.030045282347658</v>
       </c>
       <c r="M11">
-        <v>1.074160342471171</v>
+        <v>1.041152490536639</v>
       </c>
       <c r="N11">
-        <v>1.064436471360158</v>
+        <v>1.0380719764175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056226171965229</v>
+        <v>1.005959745282141</v>
       </c>
       <c r="D12">
-        <v>1.059370099595584</v>
+        <v>1.025094780782354</v>
       </c>
       <c r="E12">
-        <v>1.061006337485092</v>
+        <v>1.014085460483675</v>
       </c>
       <c r="F12">
-        <v>1.070449863092731</v>
+        <v>1.025339223493814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048351088265265</v>
+        <v>1.047027209046894</v>
       </c>
       <c r="J12">
-        <v>1.062728509764535</v>
+        <v>1.03551400226248</v>
       </c>
       <c r="K12">
-        <v>1.062896514898537</v>
+        <v>1.03975649534226</v>
       </c>
       <c r="L12">
-        <v>1.064526911201669</v>
+        <v>1.028947690727291</v>
       </c>
       <c r="M12">
-        <v>1.073937106682967</v>
+        <v>1.039996549437358</v>
       </c>
       <c r="N12">
-        <v>1.064237706145065</v>
+        <v>1.03698455092081</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056286955811617</v>
+        <v>1.006299156744256</v>
       </c>
       <c r="D13">
-        <v>1.059417762245222</v>
+        <v>1.025351924815571</v>
       </c>
       <c r="E13">
-        <v>1.061062533879075</v>
+        <v>1.014369915636849</v>
       </c>
       <c r="F13">
-        <v>1.070507233988286</v>
+        <v>1.025635636152539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048369023470405</v>
+        <v>1.047146389683899</v>
       </c>
       <c r="J13">
-        <v>1.06277109048453</v>
+        <v>1.035747641652047</v>
       </c>
       <c r="K13">
-        <v>1.062934610873691</v>
+        <v>1.039966563153528</v>
       </c>
       <c r="L13">
-        <v>1.064573527727558</v>
+        <v>1.029183766065891</v>
       </c>
       <c r="M13">
-        <v>1.073984991851208</v>
+        <v>1.040245201414727</v>
       </c>
       <c r="N13">
-        <v>1.064280347334566</v>
+        <v>1.037218522105108</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056486115724541</v>
+        <v>1.007407390922135</v>
       </c>
       <c r="D14">
-        <v>1.059573931943588</v>
+        <v>1.026191757500604</v>
       </c>
       <c r="E14">
-        <v>1.061246690997263</v>
+        <v>1.015299192651859</v>
       </c>
       <c r="F14">
-        <v>1.070695231818233</v>
+        <v>1.026603857984111</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048427751268718</v>
+        <v>1.047535288068351</v>
       </c>
       <c r="J14">
-        <v>1.062910588834563</v>
+        <v>1.036510446535051</v>
       </c>
       <c r="K14">
-        <v>1.063059414283748</v>
+        <v>1.040652424619559</v>
       </c>
       <c r="L14">
-        <v>1.064726276477798</v>
+        <v>1.029954841495829</v>
       </c>
       <c r="M14">
-        <v>1.074141889881339</v>
+        <v>1.041057253644204</v>
       </c>
       <c r="N14">
-        <v>1.064420043788257</v>
+        <v>1.037982410258541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056608822544433</v>
+        <v>1.008087273703097</v>
       </c>
       <c r="D15">
-        <v>1.05967015286135</v>
+        <v>1.02670714301067</v>
       </c>
       <c r="E15">
-        <v>1.061360175767296</v>
+        <v>1.015869656080857</v>
       </c>
       <c r="F15">
-        <v>1.07081107714048</v>
+        <v>1.02719813842428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048463906144091</v>
+        <v>1.047773681377165</v>
       </c>
       <c r="J15">
-        <v>1.062996522660874</v>
+        <v>1.036978362511298</v>
       </c>
       <c r="K15">
-        <v>1.063136293808189</v>
+        <v>1.041073153432674</v>
       </c>
       <c r="L15">
-        <v>1.06482039480612</v>
+        <v>1.030428072765472</v>
       </c>
       <c r="M15">
-        <v>1.07423855896363</v>
+        <v>1.041555556354557</v>
       </c>
       <c r="N15">
-        <v>1.064506099650458</v>
+        <v>1.038450990729144</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057322996962918</v>
+        <v>1.012000738651962</v>
       </c>
       <c r="D16">
-        <v>1.060230194405178</v>
+        <v>1.02967612651039</v>
       </c>
       <c r="E16">
-        <v>1.062021003901775</v>
+        <v>1.019158769883832</v>
       </c>
       <c r="F16">
-        <v>1.071485555699623</v>
+        <v>1.030623219917592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048673896540393</v>
+        <v>1.049142981107068</v>
       </c>
       <c r="J16">
-        <v>1.063496455179393</v>
+        <v>1.03967089164448</v>
       </c>
       <c r="K16">
-        <v>1.063583522190379</v>
+        <v>1.04349430630646</v>
       </c>
       <c r="L16">
-        <v>1.065368277309498</v>
+        <v>1.033154825423431</v>
       </c>
       <c r="M16">
-        <v>1.074801200186791</v>
+        <v>1.044425611419109</v>
       </c>
       <c r="N16">
-        <v>1.065006742130497</v>
+        <v>1.041147343562533</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.057770952248643</v>
+        <v>1.014418172023414</v>
       </c>
       <c r="D17">
-        <v>1.060581488727417</v>
+        <v>1.031512134428592</v>
       </c>
       <c r="E17">
-        <v>1.062435786279216</v>
+        <v>1.02119523248407</v>
       </c>
       <c r="F17">
-        <v>1.071908822358677</v>
+        <v>1.032742696604359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048805224792672</v>
+        <v>1.049986222570637</v>
       </c>
       <c r="J17">
-        <v>1.063809839149259</v>
+        <v>1.041333338396018</v>
       </c>
       <c r="K17">
-        <v>1.063863842398134</v>
+        <v>1.044989315665391</v>
       </c>
       <c r="L17">
-        <v>1.065712014117361</v>
+        <v>1.034841565476608</v>
       </c>
       <c r="M17">
-        <v>1.075154117544813</v>
+        <v>1.046199991579293</v>
       </c>
       <c r="N17">
-        <v>1.065320571141545</v>
+        <v>1.042812151179144</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058032227483618</v>
+        <v>1.015815188208256</v>
       </c>
       <c r="D18">
-        <v>1.060786391039833</v>
+        <v>1.032573836917584</v>
       </c>
       <c r="E18">
-        <v>1.062677816416738</v>
+        <v>1.022373744123745</v>
       </c>
       <c r="F18">
-        <v>1.072155773076793</v>
+        <v>1.033968834201243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048881684713542</v>
+        <v>1.050472568501916</v>
       </c>
       <c r="J18">
-        <v>1.063992555032126</v>
+        <v>1.042293749296941</v>
       </c>
       <c r="K18">
-        <v>1.064027271296415</v>
+        <v>1.045853032958353</v>
       </c>
       <c r="L18">
-        <v>1.065912533319393</v>
+        <v>1.035817138656377</v>
       </c>
       <c r="M18">
-        <v>1.07535996382214</v>
+        <v>1.047225896457365</v>
       </c>
       <c r="N18">
-        <v>1.065503546501923</v>
+        <v>1.043773925973706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058121314011735</v>
+        <v>1.016289364373568</v>
       </c>
       <c r="D19">
-        <v>1.060856257146635</v>
+        <v>1.032934314314251</v>
       </c>
       <c r="E19">
-        <v>1.062760358488398</v>
+        <v>1.022774032709987</v>
       </c>
       <c r="F19">
-        <v>1.072239988168014</v>
+        <v>1.034385229488806</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048907731554755</v>
+        <v>1.050637480273059</v>
       </c>
       <c r="J19">
-        <v>1.064054843605345</v>
+        <v>1.042619679066901</v>
       </c>
       <c r="K19">
-        <v>1.064082983254032</v>
+        <v>1.046146153948688</v>
       </c>
       <c r="L19">
-        <v>1.065980909149628</v>
+        <v>1.036148404346654</v>
       </c>
       <c r="M19">
-        <v>1.075430151338402</v>
+        <v>1.047574192558481</v>
       </c>
       <c r="N19">
-        <v>1.065565923532061</v>
+        <v>1.044100318601325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.057722891877569</v>
+        <v>1.014160161879953</v>
       </c>
       <c r="D20">
-        <v>1.060543798350603</v>
+        <v>1.031316107116879</v>
       </c>
       <c r="E20">
-        <v>1.062391274272201</v>
+        <v>1.020977710271169</v>
       </c>
       <c r="F20">
-        <v>1.071863402982088</v>
+        <v>1.032516350519541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048791149164665</v>
+        <v>1.049896323184376</v>
       </c>
       <c r="J20">
-        <v>1.063776223847312</v>
+        <v>1.041155938315351</v>
       </c>
       <c r="K20">
-        <v>1.063833774673668</v>
+        <v>1.04482977894201</v>
       </c>
       <c r="L20">
-        <v>1.065675131998312</v>
+        <v>1.034661455739175</v>
       </c>
       <c r="M20">
-        <v>1.075116253314343</v>
+        <v>1.046010560835275</v>
       </c>
       <c r="N20">
-        <v>1.065286908102013</v>
+        <v>1.042634499170014</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056427468549525</v>
+        <v>1.007081658079474</v>
       </c>
       <c r="D21">
-        <v>1.059527943940933</v>
+        <v>1.025944879261385</v>
       </c>
       <c r="E21">
-        <v>1.061192457255667</v>
+        <v>1.015025981976816</v>
       </c>
       <c r="F21">
-        <v>1.070639868299026</v>
+        <v>1.026319216303677</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048410463491673</v>
+        <v>1.047421022216453</v>
       </c>
       <c r="J21">
-        <v>1.062869513321358</v>
+        <v>1.036286253166748</v>
       </c>
       <c r="K21">
-        <v>1.063022666118817</v>
+        <v>1.040450843075826</v>
       </c>
       <c r="L21">
-        <v>1.06468129478216</v>
+        <v>1.029728166761092</v>
       </c>
       <c r="M21">
-        <v>1.07409568752517</v>
+        <v>1.040818549013518</v>
       </c>
       <c r="N21">
-        <v>1.064378909943112</v>
+        <v>1.03775789850994</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055612890484438</v>
+        <v>1.00250401380976</v>
       </c>
       <c r="D22">
-        <v>1.058889219176921</v>
+        <v>1.022478431941394</v>
       </c>
       <c r="E22">
-        <v>1.060439564585921</v>
+        <v>1.011193206004048</v>
       </c>
       <c r="F22">
-        <v>1.069871179916834</v>
+        <v>1.022324428468033</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048169833934209</v>
+        <v>1.045811824605757</v>
       </c>
       <c r="J22">
-        <v>1.062298742875905</v>
+        <v>1.033134695126128</v>
       </c>
       <c r="K22">
-        <v>1.0625119927229</v>
+        <v>1.037617362692053</v>
       </c>
       <c r="L22">
-        <v>1.064056638824085</v>
+        <v>1.026546137363902</v>
       </c>
       <c r="M22">
-        <v>1.073453975104108</v>
+        <v>1.037466238067656</v>
       </c>
       <c r="N22">
-        <v>1.063807328938158</v>
+        <v>1.034601864895413</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056044723045554</v>
+        <v>1.004943254050338</v>
       </c>
       <c r="D23">
-        <v>1.059227820911061</v>
+        <v>1.024324854947087</v>
       </c>
       <c r="E23">
-        <v>1.060838606604066</v>
+        <v>1.013233970770663</v>
       </c>
       <c r="F23">
-        <v>1.070278619738622</v>
+        <v>1.024451838658276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048297517365223</v>
+        <v>1.04667007158235</v>
       </c>
       <c r="J23">
-        <v>1.062601384250427</v>
+        <v>1.034814229476911</v>
       </c>
       <c r="K23">
-        <v>1.062782776557281</v>
+        <v>1.039127334969164</v>
       </c>
       <c r="L23">
-        <v>1.064387761023814</v>
+        <v>1.028240892918217</v>
       </c>
       <c r="M23">
-        <v>1.073794163104317</v>
+        <v>1.039252011291384</v>
       </c>
       <c r="N23">
-        <v>1.064110400098145</v>
+        <v>1.03628378437762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.057744608319511</v>
+        <v>1.01427678572776</v>
       </c>
       <c r="D24">
-        <v>1.06056082901468</v>
+        <v>1.031404711815498</v>
       </c>
       <c r="E24">
-        <v>1.062411387039736</v>
+        <v>1.02107602793525</v>
       </c>
       <c r="F24">
-        <v>1.07188392583784</v>
+        <v>1.032618657761637</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048797509772575</v>
+        <v>1.049936961817011</v>
       </c>
       <c r="J24">
-        <v>1.063791413388933</v>
+        <v>1.041236126344435</v>
       </c>
       <c r="K24">
-        <v>1.063847361222262</v>
+        <v>1.04490189230024</v>
       </c>
       <c r="L24">
-        <v>1.065691797368074</v>
+        <v>1.034742865084971</v>
       </c>
       <c r="M24">
-        <v>1.075133362543799</v>
+        <v>1.046096184370176</v>
       </c>
       <c r="N24">
-        <v>1.065302119214526</v>
+        <v>1.042714801075298</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059716861967966</v>
+        <v>1.024600572350721</v>
       </c>
       <c r="D25">
-        <v>1.062107643706108</v>
+        <v>1.039261829023387</v>
       </c>
       <c r="E25">
-        <v>1.064240222375449</v>
+        <v>1.029813364235741</v>
       </c>
       <c r="F25">
-        <v>1.073749401386022</v>
+        <v>1.041701906168941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049372168103513</v>
+        <v>1.053513507969584</v>
       </c>
       <c r="J25">
-        <v>1.065169408838429</v>
+        <v>1.048327474241406</v>
       </c>
       <c r="K25">
-        <v>1.065079727694248</v>
+        <v>1.051279763714244</v>
       </c>
       <c r="L25">
-        <v>1.067205975036686</v>
+        <v>1.041965846223148</v>
       </c>
       <c r="M25">
-        <v>1.076687255534348</v>
+        <v>1.053685594605446</v>
       </c>
       <c r="N25">
-        <v>1.066682071575618</v>
+        <v>1.049816219499671</v>
       </c>
     </row>
   </sheetData>
